--- a/DOC/要件定義/社内管理システム _業務フロー.xlsx
+++ b/DOC/要件定義/社内管理システム _業務フロー.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C715E60F-33E9-45D6-9599-54A7CDDA2C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B38ED1-D939-4B4F-AA5D-E9EF00FB976B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="27930" windowHeight="15105" tabRatio="1000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="社員管理" sheetId="21" r:id="rId1"/>
     <sheet name="給料管理" sheetId="19" r:id="rId2"/>
-    <sheet name="機能リスト" sheetId="20" r:id="rId3"/>
+    <sheet name="請求管理" sheetId="22" r:id="rId3"/>
+    <sheet name="機能リスト" sheetId="20" r:id="rId4"/>
+    <sheet name="システム構成図_1" sheetId="23" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2394,6 +2396,2215 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531DA7FE-FE3D-4298-8F9E-8880B7A026B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847724" y="514350"/>
+          <a:ext cx="15763875" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>時間軸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0862DB-1208-4DAB-B526-B881345C3173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="1133475"/>
+          <a:ext cx="9553576" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EMSM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（管理者権限）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551354FA-19B8-4319-BD5C-7C6C6C777A87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342899" y="4114800"/>
+          <a:ext cx="9658351" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EMS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（社員権限）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228598</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9CFA096-DC1D-4AFA-9C66-6AA4072DAF79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914398" y="1771650"/>
+          <a:ext cx="2152651" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①契約情報登録：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　社員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、顧客</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 下 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08EA8C1B-9E21-48DC-9F53-B5E45A5286D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="923925"/>
+          <a:ext cx="123825" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581023</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D66CDEE-354E-4A9E-9884-21E7BFF0C05B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324223" y="4505325"/>
+          <a:ext cx="2152651" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②稼働登録：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矢印: 下 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E10CA5-FC9A-477D-A89D-8FBC14F57C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="895350"/>
+          <a:ext cx="171450" cy="3638550"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523873</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24367F3B-00F7-45FE-954D-313680F3EDA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324473" y="1781175"/>
+          <a:ext cx="2152651" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③自動請求（請求書生成）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矢印: 下 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E27F8F-2584-4E51-B584-2AC5F1460F61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="914400"/>
+          <a:ext cx="123825" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1254C3-30D3-4D6D-95D6-B7A3BEACA244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828676" y="771524"/>
+          <a:ext cx="8991600" cy="6848476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EMSM/EMS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBB835B-9C19-F6CC-748B-BEB9FE43FF8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066801" y="1143000"/>
+          <a:ext cx="4819650" cy="4343399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>基幹機能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C338CE9E-1A94-4015-B31D-AB1F194E93D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591426" y="1276351"/>
+          <a:ext cx="1714499" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>会計機能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　（要件中）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　・試算表（月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　・決算書</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　・元帳</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C23541-3B87-CE10-C48E-6BEF01BF0E80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323976" y="1590676"/>
+          <a:ext cx="1790700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>社員情報管理機能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　試験中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B497CE3-FF38-8EAA-DF02-38EE59E3CEE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314451" y="3667126"/>
+          <a:ext cx="1790700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>給料管理機能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　試験中（詳細だけ利用中）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4602E8-CE8D-BDA4-94B0-D8C564C511A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="6629402"/>
+          <a:ext cx="8248650" cy="666748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　　　　　　　マスタ管理機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>開発中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　取引先、契約、</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952D9E70-C52C-D675-51AE-EBC6266A241B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343026" y="2552701"/>
+          <a:ext cx="1790700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>勤怠管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　利用可能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D206C9EB-D852-25AF-CF7D-0752B956E88F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914776" y="3476626"/>
+          <a:ext cx="1790700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>請求機能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　請求書作成まで試験中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CD07D9-26E0-B3E1-1F29-935CE5589AEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962401" y="2505076"/>
+          <a:ext cx="1790700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一般経費管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　要件中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FDEA13-5F46-F763-8CEB-74F20F2A8E4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914776" y="1581151"/>
+          <a:ext cx="1790700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>固定費用管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　要件中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428627</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA45633-4F12-A467-AED0-E7FAB9834C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600827" y="1238250"/>
+          <a:ext cx="352423" cy="3343275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>口座照会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>要件中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4363CC-1BA1-BD2E-DCF0-77FE93B7195A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6991350" y="2733675"/>
+          <a:ext cx="533400" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BBEA24-A9C9-66F4-1A55-87447C3DBCB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="5676900"/>
+          <a:ext cx="2990850" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年末調整機能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　要件中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矢印: 左右 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79934158-E530-7D90-2D87-E1F23429195D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="2686050"/>
+          <a:ext cx="619125" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6707EDEE-9580-2044-CBBF-D1CE409CB427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886201" y="4429126"/>
+          <a:ext cx="1790700" cy="714374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>外注機能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>　要件中</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2660,7 +4871,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2675,8 +4886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0508091-FC7D-4F43-B7A7-54BF6FB50ED4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2688,6 +4899,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4699D583-4C33-4BA4-878F-66103DB67F33}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B9EF55-15DF-4026-A613-D989BE40B247}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2792,4 +5019,20 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5289D43-59E8-4D33-99E3-1D263401EE55}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>